--- a/Presentation/A Text Game - testing scripts.xlsx
+++ b/Presentation/A Text Game - testing scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdweidner\OneDrive - DOJ\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="13_ncr:1_{C52E9960-CE4F-4559-B497-C4C8CB374B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AC7CF57-F8C3-4F08-A179-F0D41EAAF728}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{C52E9960-CE4F-4559-B497-C4C8CB374B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A81A11F8-72F7-4761-9DEB-9C43D85DCC78}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22428" windowHeight="12576" xr2:uid="{2DE60987-CC8B-4F00-96BA-06206BC8ACF9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="53">
   <si>
     <t>A Text Based Game - MVP UAT Scripts</t>
   </si>
@@ -141,12 +141,6 @@
     <t>Display button for room: drawbridge (onclick: drawbridge)</t>
   </si>
   <si>
-    <t>Display button for room: throne room (onclick:  throne room)  NOTE: this should not be visible until labyrinth is complete</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
     <t xml:space="preserve">4 - Sleeping Chambers </t>
   </si>
   <si>
@@ -159,7 +153,7 @@
     <t>5 - Armory</t>
   </si>
   <si>
-    <t>a couple puzzles to give ???</t>
+    <t xml:space="preserve">Puzzle </t>
   </si>
   <si>
     <t>n/a</t>
@@ -196,9 +190,6 @@
   </si>
   <si>
     <t>9 - Stables</t>
-  </si>
-  <si>
-    <t>jewel count does not carry over to courtyard after puzzle success</t>
   </si>
   <si>
     <t>10 - Healers Room</t>
@@ -211,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +241,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -741,20 +740,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,13 +1069,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9880767-FA9F-4615-AED2-AF76D3069D00}">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="77.42578125" style="1" customWidth="1"/>
@@ -1088,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1"/>
+    <row r="2" spans="1:3" thickBot="1"/>
     <row r="3" spans="1:3" s="22" customFormat="1" ht="29.45" customHeight="1" thickBot="1">
       <c r="A3" s="20" t="s">
         <v>1</v>
@@ -1102,12 +1101,12 @@
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="39">
         <v>45268</v>
       </c>
       <c r="C4" s="23"/>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1"/>
+    <row r="5" spans="1:3" thickBot="1"/>
     <row r="6" spans="1:3" s="13" customFormat="1" ht="28.9" customHeight="1" thickBot="1">
       <c r="A6" s="14" t="s">
         <v>4</v>
@@ -1119,7 +1118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1139,7 +1138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15">
+    <row r="9" spans="1:3">
       <c r="A9" s="18"/>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -1148,7 +1147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15">
+    <row r="10" spans="1:3">
       <c r="A10" s="17"/>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -1157,7 +1156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3">
       <c r="A11" s="6"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
@@ -1166,7 +1165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3">
       <c r="A12" s="6"/>
       <c r="B12" s="3" t="s">
         <v>14</v>
@@ -1175,7 +1174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:3">
       <c r="A13" s="6"/>
       <c r="B13" s="3" t="s">
         <v>15</v>
@@ -1184,7 +1183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15">
+    <row r="14" spans="1:3">
       <c r="A14" s="6"/>
       <c r="B14" s="3" t="s">
         <v>16</v>
@@ -1193,7 +1192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:3">
       <c r="A15" s="6"/>
       <c r="B15" s="3" t="s">
         <v>17</v>
@@ -1202,7 +1201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3">
       <c r="A16" s="7"/>
       <c r="B16" s="9" t="s">
         <v>18</v>
@@ -1211,7 +1210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3">
       <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
@@ -1222,7 +1221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15">
+    <row r="18" spans="1:3">
       <c r="A18" s="10"/>
       <c r="B18" s="28" t="s">
         <v>21</v>
@@ -1231,7 +1230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3">
       <c r="A19" s="24"/>
       <c r="B19" s="28" t="s">
         <v>12</v>
@@ -1240,7 +1239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3">
       <c r="A20" s="25"/>
       <c r="B20" s="28" t="s">
         <v>22</v>
@@ -1249,7 +1248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3">
       <c r="A21" s="10"/>
       <c r="B21" s="28" t="s">
         <v>23</v>
@@ -1258,7 +1257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15">
+    <row r="22" spans="1:3">
       <c r="A22" s="11"/>
       <c r="B22" s="29" t="s">
         <v>24</v>
@@ -1267,7 +1266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15">
+    <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
@@ -1278,7 +1277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15">
+    <row r="24" spans="1:3">
       <c r="A24" s="6"/>
       <c r="B24" s="3" t="s">
         <v>27</v>
@@ -1287,7 +1286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15">
+    <row r="25" spans="1:3">
       <c r="A25" s="18"/>
       <c r="B25" s="3" t="s">
         <v>12</v>
@@ -1296,7 +1295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15">
+    <row r="26" spans="1:3">
       <c r="A26" s="17"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
@@ -1305,7 +1304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15">
+    <row r="27" spans="1:3">
       <c r="A27" s="6"/>
       <c r="B27" s="3" t="s">
         <v>29</v>
@@ -1314,7 +1313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15">
+    <row r="28" spans="1:3">
       <c r="A28" s="6"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
@@ -1323,7 +1322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15">
+    <row r="29" spans="1:3">
       <c r="A29" s="6"/>
       <c r="B29" s="3" t="s">
         <v>31</v>
@@ -1332,7 +1331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15">
+    <row r="30" spans="1:3">
       <c r="A30" s="6"/>
       <c r="B30" s="3" t="s">
         <v>32</v>
@@ -1341,7 +1340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15">
+    <row r="31" spans="1:3">
       <c r="A31" s="6"/>
       <c r="B31" s="1" t="s">
         <v>33</v>
@@ -1350,484 +1349,485 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30.75">
+    <row r="32" spans="1:3">
       <c r="A32" s="10"/>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" thickBot="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15">
-      <c r="A34" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15">
-      <c r="A35" s="10"/>
-      <c r="B35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15">
-      <c r="A36" s="18"/>
-      <c r="B36" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="C36" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15">
-      <c r="A37" s="17"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="10"/>
       <c r="B37" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30.75">
       <c r="A38" s="10"/>
       <c r="B38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="11"/>
+      <c r="B39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="30.75">
-      <c r="A39" s="10"/>
-      <c r="B39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1">
-      <c r="A40" s="11"/>
-      <c r="B40" s="8" t="s">
+      <c r="C44" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="11"/>
+      <c r="B45" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15">
-      <c r="A41" s="12" t="s">
+      <c r="C45" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="18"/>
+      <c r="B48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="17"/>
+      <c r="B49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="5" t="s">
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="10"/>
+      <c r="B50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="11"/>
+      <c r="B51" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15">
-      <c r="A42" s="10"/>
-      <c r="B42" s="3" t="s">
+      <c r="C52" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="10"/>
+      <c r="B53" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15">
-      <c r="A43" s="18"/>
-      <c r="B43" s="3" t="s">
+      <c r="C53" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="18"/>
+      <c r="B54" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15">
-      <c r="A44" s="17"/>
-      <c r="B44" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15">
-      <c r="A45" s="10"/>
-      <c r="B45" s="3" t="s">
+      <c r="C54" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="17"/>
+      <c r="B55" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" thickBot="1">
-      <c r="A46" s="11"/>
-      <c r="B46" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15">
-      <c r="A47" s="12" t="s">
+      <c r="C55" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="30.75">
+      <c r="A56" s="10"/>
+      <c r="B56" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C56" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="11"/>
+      <c r="B57" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15">
-      <c r="A48" s="10"/>
-      <c r="B48" s="3" t="s">
+      <c r="C58" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="10"/>
+      <c r="B59" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15">
-      <c r="A49" s="18"/>
-      <c r="B49" s="3" t="s">
+      <c r="C59" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="18"/>
+      <c r="B60" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15">
-      <c r="A50" s="17"/>
-      <c r="B50" s="3" t="s">
+      <c r="C60" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="17"/>
+      <c r="B61" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="30.75">
-      <c r="A51" s="10"/>
-      <c r="B51" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" thickBot="1">
-      <c r="A52" s="11"/>
-      <c r="B52" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15">
-      <c r="A53" s="12" t="s">
+      <c r="C61" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30.75">
+      <c r="A62" s="10"/>
+      <c r="B62" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="10"/>
+      <c r="B63" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="C63" s="32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15">
-      <c r="A54" s="10"/>
-      <c r="B54" s="3" t="s">
+      <c r="C64" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="10"/>
+      <c r="B65" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15">
-      <c r="A55" s="18"/>
-      <c r="B55" s="3" t="s">
+      <c r="C65" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="18"/>
+      <c r="B66" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15">
-      <c r="A56" s="17"/>
-      <c r="B56" s="3" t="s">
+      <c r="C66" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="17"/>
+      <c r="B67" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="30.75">
-      <c r="A57" s="10"/>
-      <c r="B57" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" thickBot="1">
-      <c r="A58" s="11"/>
-      <c r="B58" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15">
-      <c r="A59" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15">
-      <c r="A60" s="10"/>
-      <c r="B60" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15">
-      <c r="A61" s="18"/>
-      <c r="B61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15">
-      <c r="A62" s="17"/>
-      <c r="B62" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="30.75">
-      <c r="A63" s="10"/>
-      <c r="B63" s="3" t="s">
+      <c r="C67" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="10"/>
+      <c r="B68" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15" thickBot="1">
-      <c r="A64" s="10"/>
-      <c r="B64" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15">
-      <c r="A65" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15">
-      <c r="A66" s="10"/>
-      <c r="B66" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C66" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15">
-      <c r="A67" s="18"/>
-      <c r="B67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15">
-      <c r="A68" s="17"/>
-      <c r="B68" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C68" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="10"/>
       <c r="B69" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C69" s="31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15">
+    <row r="70" spans="1:3">
       <c r="A70" s="10"/>
       <c r="B70" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C70" s="31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15">
-      <c r="A71" s="10"/>
-      <c r="B71" s="3" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" s="11"/>
+      <c r="B71" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C71" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15" thickBot="1">
-      <c r="A72" s="11"/>
-      <c r="B72" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15">
-      <c r="A73" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B73" s="5" t="s">
+      <c r="B72" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="30" t="s">
+      <c r="C72" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15">
-      <c r="A74" s="10"/>
+    <row r="73" spans="1:3">
+      <c r="A73" s="10"/>
+      <c r="B73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="18"/>
       <c r="B74" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C74" s="31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15">
-      <c r="A75" s="18"/>
+    <row r="75" spans="1:3">
+      <c r="A75" s="17"/>
       <c r="B75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="10"/>
+      <c r="B76" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="11"/>
+      <c r="B77" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="10"/>
+      <c r="B79" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="18"/>
+      <c r="B80" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C80" s="31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="30.75">
-      <c r="A76" s="17"/>
-      <c r="B76" s="3" t="s">
+    <row r="81" spans="1:3">
+      <c r="A81" s="17"/>
+      <c r="B81" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C76" s="40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15">
-      <c r="A77" s="10"/>
-      <c r="B77" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C77" s="31" t="s">
+      <c r="C81" s="31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15" thickBot="1">
-      <c r="A78" s="11"/>
-      <c r="B78" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C78" s="39" t="s">
+    <row r="82" spans="1:3">
+      <c r="A82" s="10"/>
+      <c r="B82" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82" s="31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15">
-      <c r="A79" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C79" s="30"/>
-    </row>
-    <row r="80" spans="1:3" ht="15">
-      <c r="A80" s="10"/>
-      <c r="B80" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80" s="31"/>
-    </row>
-    <row r="81" spans="1:3" ht="15">
-      <c r="A81" s="18"/>
-      <c r="B81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="31"/>
-    </row>
-    <row r="82" spans="1:3" ht="15">
-      <c r="A82" s="17"/>
-      <c r="B82" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C82" s="31"/>
-    </row>
-    <row r="83" spans="1:3" ht="15">
-      <c r="A83" s="10"/>
-      <c r="B83" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C83" s="31"/>
-    </row>
-    <row r="84" spans="1:3" ht="15" thickBot="1">
-      <c r="A84" s="11"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="39"/>
+    <row r="83" spans="1:3">
+      <c r="A83" s="11"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1835,6 +1835,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010061DA4E950357864192528D9E7B598C99" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bd3a7bc3831341561d4ee36b31f2c32e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c90015d2-d99c-48ee-9f3e-295988198b3a" xmlns:ns3="3c435454-b321-418b-abf4-818160abee77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1ead2a0092895a0b3b9e47ef0c485994" ns2:_="" ns3:_="">
     <xsd:import namespace="c90015d2-d99c-48ee-9f3e-295988198b3a"/>
@@ -2017,15 +2026,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2038,11 +2038,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6084BEB3-D5A7-4664-8476-492E118B2F04}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8B24D70-B8F7-4BF3-90A1-0E35965B8FB6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8B24D70-B8F7-4BF3-90A1-0E35965B8FB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6084BEB3-D5A7-4664-8476-492E118B2F04}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
